--- a/testData/userCase.xlsx
+++ b/testData/userCase.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="24210" windowHeight="10200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login_crm" sheetId="7" r:id="rId1"/>
     <sheet name="crm_resume_list" sheetId="8" r:id="rId2"/>
+    <sheet name="wholeNetworkJob" sheetId="10" r:id="rId3"/>
+    <sheet name="outsideJob" sheetId="11" r:id="rId4"/>
+    <sheet name="wholehotJob" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>case_name</t>
   </si>
@@ -102,6 +105,96 @@
   </si>
   <si>
     <t>没有登录</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>benefitTag</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>salaryRabge</t>
+  </si>
+  <si>
+    <t>cityCode</t>
+  </si>
+  <si>
+    <t>jobFunc</t>
+  </si>
+  <si>
+    <t>sortType</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>wholeNetwork</t>
+  </si>
+  <si>
+    <t>魔方</t>
+  </si>
+  <si>
+    <t>五险一金</t>
+  </si>
+  <si>
+    <t>{"begin":"10000","end":"20000"}</t>
+  </si>
+  <si>
+    <t>01,02,011223</t>
+  </si>
+  <si>
+    <t>3.9.0</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>appkey</t>
+  </si>
+  <si>
+    <t>jobID</t>
+  </si>
+  <si>
+    <t>outsideJob</t>
+  </si>
+  <si>
+    <t>SHENG</t>
+  </si>
+  <si>
+    <t>来源未传</t>
+  </si>
+  <si>
+    <t>ID未传</t>
+  </si>
+  <si>
+    <t>参数未传</t>
+  </si>
+  <si>
+    <t>DHFASD</t>
+  </si>
+  <si>
+    <t>来源有误</t>
+  </si>
+  <si>
+    <t>ID超出范围</t>
+  </si>
+  <si>
+    <t>jobFunc参数为空</t>
+  </si>
+  <si>
+    <t>cityCode参数为空</t>
+  </si>
+  <si>
+    <t>未传参数</t>
   </si>
 </sst>
 </file>
@@ -109,10 +202,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -147,6 +240,126 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -154,126 +367,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -290,187 +383,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,60 +590,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -566,7 +605,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,8 +628,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,10 +695,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,16 +707,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,117 +728,126 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1082,216 +1184,216 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:H25"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.25" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="20.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="51.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="4" customWidth="1"/>
+    <col min="5" max="6" width="13.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.25" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="F7" s="1" t="s">
+      <c r="D7" s="6"/>
+      <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1315,8 +1417,10 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1326,17 +1430,17 @@
     <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1377,6 +1481,370 @@
       </c>
       <c r="D4" t="s">
         <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
+    <col min="2" max="5" width="20.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="20.625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8611</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="16384" width="15.625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="5" width="15.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="15.625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8611</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>8611</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/testData/userCase.xlsx
+++ b/testData/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24210" windowHeight="10200" activeTab="3"/>
+    <workbookView windowWidth="24210" windowHeight="10200" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="login_crm" sheetId="7" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="wholeNetworkJob" sheetId="10" r:id="rId3"/>
     <sheet name="outsideJob" sheetId="11" r:id="rId4"/>
     <sheet name="wholehotJob" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -202,10 +203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -240,10 +241,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,6 +273,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -263,20 +331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -285,58 +339,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -360,9 +362,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,187 +384,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,13 +591,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,6 +610,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -625,54 +656,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -687,6 +670,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -695,10 +696,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,16 +708,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,112 +729,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1598,10 +1599,10 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1656,7 +1657,6 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>1</v>
       </c>
@@ -1677,7 +1677,6 @@
       <c r="C4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1692,8 +1691,6 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>44</v>
       </c>
@@ -1804,7 +1801,6 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>8611</v>
       </c>
@@ -1825,7 +1821,6 @@
       <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1851,4 +1846,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/testData/userCase.xlsx
+++ b/testData/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24210" windowHeight="10200" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login_crm" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>case_name</t>
   </si>
@@ -157,6 +157,24 @@
   </si>
   <si>
     <t>成功</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>8612</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>size不为0</t>
   </si>
   <si>
     <t>appkey</t>
@@ -203,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -243,9 +261,98 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,9 +366,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,96 +381,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,61 +402,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,31 +498,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,25 +528,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,7 +564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,43 +576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,6 +609,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -606,11 +639,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,49 +680,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -696,10 +714,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,16 +726,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,116 +747,116 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,6 +864,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1190,211 +1214,211 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="51.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="4" customWidth="1"/>
-    <col min="5" max="6" width="13.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.25" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="20.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="51.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="6" customWidth="1"/>
+    <col min="5" max="6" width="13.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.25" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="8"/>
+      <c r="F7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1431,17 +1455,17 @@
     <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1493,99 +1517,165 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
-    <col min="2" max="5" width="20.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="20.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="4" customWidth="1"/>
+    <col min="2" max="5" width="20.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="34.375" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="20.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:13">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>8611</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="4">
         <v>15</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
+        <v>8611</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1618,10 +1708,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>38</v>
@@ -1632,13 +1722,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1652,7 +1742,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -1664,29 +1754,29 @@
         <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1695,29 +1785,29 @@
         <v>44</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -1729,7 +1819,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1776,7 +1866,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -1796,7 +1886,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -1808,12 +1898,12 @@
         <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -1825,12 +1915,12 @@
         <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1839,7 +1929,7 @@
         <v>44</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1853,7 +1943,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>

--- a/testData/userCase.xlsx
+++ b/testData/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="login_crm" sheetId="7" r:id="rId1"/>
@@ -81,6 +81,9 @@
     <t>密码为空</t>
   </si>
   <si>
+    <t>post</t>
+  </si>
+  <si>
     <t>用户名为空</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
   </si>
   <si>
     <t>search_resume</t>
-  </si>
-  <si>
-    <t>post</t>
   </si>
   <si>
     <t>accountToken=yangsonglin@mofanghr.com|A2F2220D9F4B86EB283410E03A6C88D6</t>
@@ -222,9 +222,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -259,6 +259,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -268,36 +298,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,48 +335,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,6 +351,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -372,20 +373,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -402,49 +402,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,12 +576,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -469,120 +583,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,6 +624,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -635,6 +644,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,50 +701,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -714,10 +714,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,133 +726,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1208,8 +1208,8 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1356,7 +1356,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -1372,7 +1372,7 @@
         <v>13</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1393,7 +1393,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1404,7 +1404,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>17</v>
@@ -1419,7 +1419,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -1485,24 +1485,24 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -1519,10 +1519,10 @@
   <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1619,14 +1619,12 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="4"/>
       <c r="G3" s="4">
         <v>8611</v>
       </c>
